--- a/timing.xlsx
+++ b/timing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>02c425157ecd32f259548b33402ff6d3</t>
   </si>
@@ -81,12 +81,6 @@
     <t>LAST</t>
   </si>
   <si>
-    <t>Speedup</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>txipi</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>95ebc3c7b3b9f1d2c40fec14415d3cb8</t>
+  </si>
+  <si>
+    <t>Mejora</t>
+  </si>
+  <si>
+    <t>SpeedUp</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,11 +174,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1485,10 +1522,10 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1815,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,7 +1873,7 @@
     <col min="18" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1844,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1880,13 +1917,16 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1933,8 +1973,12 @@
       <c r="P2" s="3">
         <v>0</v>
       </c>
+      <c r="Q2" s="7">
+        <f>(P2*-1)/100</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1966,11 +2010,16 @@
         <f t="shared" ref="N3:N8" si="0">AVERAGE(I3:M3)</f>
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
+      <c r="P3" s="1">
+        <f>((N3-N2)/ABS(N2))*100</f>
+        <v>-7.6923076923076952</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q16" si="1">(P3*-1)/100</f>
+        <v>7.6923076923076955E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2002,11 +2051,16 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
+      <c r="P4" s="1">
+        <f>((N4-N2)/ABS(N2))*100</f>
+        <v>400</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="1"/>
+        <v>-4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2038,11 +2092,16 @@
         <f t="shared" si="0"/>
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
+      <c r="P5" s="1">
+        <f>((N5-N2)/ABS(N2))*100</f>
+        <v>392.30769230769226</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="1"/>
+        <v>-3.9230769230769225</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2093,8 +2152,12 @@
       <c r="P6" s="3">
         <v>0</v>
       </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2127,11 +2190,16 @@
         <v>1.6428199999999999</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="1" t="s">
-        <v>19</v>
+      <c r="P7" s="1">
+        <f>((N7-N6)/ABS(N6))*100</f>
+        <v>17.277270131353507</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.17277270131353506</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2164,11 +2232,16 @@
         <v>2.2266000000000004</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
+      <c r="P8" s="1">
+        <f>((N8-N6)/ABS(N6))*100</f>
+        <v>58.952027412906929</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.58952027412906927</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2201,13 +2274,18 @@
         <v>2.3473999999999995</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="1" t="s">
-        <v>19</v>
+      <c r="P9" s="1">
+        <f>((N9-N6)/ABS(N6))*100</f>
+        <v>67.575671045117033</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.67575671045117036</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -2216,7 +2294,7 @@
         <v>12356630</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2237,10 +2315,14 @@
         <f>C10/I10</f>
         <v>330718.35773358669</v>
       </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>9092625</v>
@@ -2249,7 +2331,7 @@
         <v>12356630</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2276,17 +2358,21 @@
         <v>27.963999999999999</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N16" si="1">AVERAGE(I11:M11)</f>
+        <f t="shared" ref="N11:N16" si="2">AVERAGE(I11:M11)</f>
         <v>27.953999999999997</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="3">
         <v>0</v>
       </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <v>9092625</v>
@@ -2295,7 +2381,7 @@
         <v>12356630</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2322,17 +2408,22 @@
         <v>23.231000000000002</v>
       </c>
       <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>22.524000000000001</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="1">
+        <f>((N12-N11)/ABS(N11))*100</f>
+        <v>-19.424769263790502</v>
+      </c>
+      <c r="Q12" s="7">
         <f t="shared" si="1"/>
-        <v>22.524000000000001</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="1" t="s">
-        <v>19</v>
+        <v>0.19424769263790501</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>9092625</v>
@@ -2341,7 +2432,7 @@
         <v>12356630</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2368,17 +2459,22 @@
         <v>14.138999999999999</v>
       </c>
       <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>14.2624</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="1">
+        <f>((N13-$N11)/ABS($N11))*100</f>
+        <v>-48.979036989339626</v>
+      </c>
+      <c r="Q13" s="7">
         <f t="shared" si="1"/>
-        <v>14.2624</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="1" t="s">
-        <v>19</v>
+        <v>0.48979036989339625</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>9092625</v>
@@ -2387,7 +2483,7 @@
         <v>12356630</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2414,17 +2510,22 @@
         <v>4.4039999999999999</v>
       </c>
       <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>4.1875999999999998</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="1">
+        <f>((N14-$N11)/ABS($N11))*100</f>
+        <v>-85.019675180653934</v>
+      </c>
+      <c r="Q14" s="8">
         <f t="shared" si="1"/>
-        <v>4.1875999999999998</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="1" t="s">
-        <v>19</v>
+        <v>0.85019675180653931</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4">
         <v>9092625</v>
@@ -2433,7 +2534,7 @@
         <v>12356630</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2460,17 +2561,22 @@
         <v>4.6529999999999996</v>
       </c>
       <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0665999999999993</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="1">
+        <f>((N15-$N11)/ABS($N11))*100</f>
+        <v>-81.875223581598348</v>
+      </c>
+      <c r="Q15" s="7">
         <f t="shared" si="1"/>
-        <v>5.0665999999999993</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="1" t="s">
-        <v>19</v>
+        <v>0.81875223581598344</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4">
         <v>9092625</v>
@@ -2479,7 +2585,7 @@
         <v>12356630</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2506,12 +2612,17 @@
         <v>7.2050000000000001</v>
       </c>
       <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9001999999999999</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="1">
+        <f>((N16-$N11)/ABS($N11))*100</f>
+        <v>-68.16126493525077</v>
+      </c>
+      <c r="Q16" s="7">
         <f t="shared" si="1"/>
-        <v>8.9001999999999999</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="1" t="s">
-        <v>19</v>
+        <v>0.68161264935250765</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.3">
@@ -2524,6 +2635,14 @@
       <c r="D22" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q2:Q16">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2533,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
